--- a/biology/Botanique/Palicourea_elata/Palicourea_elata.xlsx
+++ b/biology/Botanique/Palicourea_elata/Palicourea_elata.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Palicourea elata (syn : Psychotria elata[1]) est un arbuste tropical épiphyte originaire d'Amérique centrale (Costa Rica, Mexique) et d'Amérique du Sud (Colombie, Equateur, Panama)[2] de la famille des rubiacées. La forme particulière de ses bractées et leur couleur rouge vif ont conduit à lui donner, parmi d'autres noms vernaculaires, celui de "plante à bisous" ou de "lèvres chaudes"[3]. En effet, celles-ci sont rouges et charnues, évoquant des lèvres humaines[4]. Leur couleur vive attire les colibris qui les pollinisent[2]. Entre celles-ci émergent de petites fleurs fleurs blanches étoilées.
-Les fruits sont des baies noires ou bleu foncé dont les oiseaux dispersent les graines[2] (ornithochorie).
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Palicourea elata (syn : Psychotria elata) est un arbuste tropical épiphyte originaire d'Amérique centrale (Costa Rica, Mexique) et d'Amérique du Sud (Colombie, Equateur, Panama) de la famille des rubiacées. La forme particulière de ses bractées et leur couleur rouge vif ont conduit à lui donner, parmi d'autres noms vernaculaires, celui de "plante à bisous" ou de "lèvres chaudes". En effet, celles-ci sont rouges et charnues, évoquant des lèvres humaines. Leur couleur vive attire les colibris qui les pollinisent. Entre celles-ci émergent de petites fleurs fleurs blanches étoilées.
+Les fruits sont des baies noires ou bleu foncé dont les oiseaux dispersent les graines (ornithochorie).
 </t>
         </is>
       </c>
@@ -512,9 +524,11 @@
           <t>Menaces</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La déforestation, en détruisant son biotope, constitue une menace même si elle n'est encore aujourd'hui (2023) classée que comme "Préoccupation mineure" (LC) dans la liste rouge de l'UICN[5].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La déforestation, en détruisant son biotope, constitue une menace même si elle n'est encore aujourd'hui (2023) classée que comme "Préoccupation mineure" (LC) dans la liste rouge de l'UICN.
 </t>
         </is>
       </c>
@@ -543,9 +557,11 @@
           <t>Culture</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Il est possible de la cultiver en serre dans les pays tempérés à partir des graines ou par bouture[4].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il est possible de la cultiver en serre dans les pays tempérés à partir des graines ou par bouture.
 </t>
         </is>
       </c>
